--- a/resource/Design.xlsx
+++ b/resource/Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\win\Documents\github\eternal-forge\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C339813-7C56-4B54-82C6-F3B0A0808D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D8162B-7B29-46E1-9BE4-1FDB41B6E1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="28420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>P0001</t>
   </si>
@@ -102,13 +102,25 @@
     <t>Parameter Count</t>
   </si>
   <si>
-    <t>P0021</t>
-  </si>
-  <si>
-    <t>P0022</t>
-  </si>
-  <si>
-    <t>P0023</t>
+    <t>PA001</t>
+  </si>
+  <si>
+    <t>PA002</t>
+  </si>
+  <si>
+    <t>PA003</t>
+  </si>
+  <si>
+    <t>PA004</t>
+  </si>
+  <si>
+    <t>PV001</t>
+  </si>
+  <si>
+    <t>PV002</t>
+  </si>
+  <si>
+    <t>PV003</t>
   </si>
 </sst>
 </file>
@@ -471,7 +483,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,7 +627,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -626,7 +638,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -637,7 +649,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -648,7 +660,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -659,7 +671,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -670,7 +682,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
@@ -681,7 +693,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
